--- a/网站设计表.xlsx
+++ b/网站设计表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16155" windowHeight="12000" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据库设计" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>美女tags</t>
   </si>
@@ -5308,6 +5308,9 @@
   </si>
   <si>
     <t>后端cms设计   增删改查</t>
+  </si>
+  <si>
+    <t>气质女神 清纯美女 小清新 淑女 辣妹 甜心美女 白皙肤色 茶色皮肤</t>
   </si>
   <si>
     <t>女神带标签的首页</t>
@@ -5453,10 +5456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -5507,41 +5510,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5560,17 +5548,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5582,16 +5600,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5607,23 +5618,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5637,7 +5632,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5658,7 +5661,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5670,19 +5715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5700,7 +5733,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5712,19 +5787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5736,13 +5805,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5754,91 +5835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5849,24 +5852,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5881,6 +5866,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5926,6 +5920,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5940,15 +5952,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5957,10 +5960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5969,16 +5972,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5987,115 +5990,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6807,8 +6810,8 @@
   <sheetPr/>
   <dimension ref="B1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37:R42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6833,7 +6836,7 @@
     </row>
     <row r="4" customFormat="1" spans="5:5">
       <c r="E4" s="2" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="5:5">
@@ -6841,12 +6844,12 @@
     </row>
     <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -6854,12 +6857,12 @@
     </row>
     <row r="7" customFormat="1" spans="2:8">
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -6870,18 +6873,18 @@
     </row>
     <row r="9" customFormat="1" spans="2:5">
       <c r="B9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="14.25" spans="5:5">
@@ -6956,23 +6959,23 @@
     </row>
     <row r="20" customFormat="1" spans="2:7">
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" customFormat="1" spans="2:7">
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -6984,20 +6987,20 @@
     </row>
     <row r="23" customFormat="1" spans="2:7">
       <c r="B23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" customFormat="1" spans="2:7">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -7025,24 +7028,24 @@
     </row>
     <row r="32" customFormat="1" spans="2:5">
       <c r="B32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:11">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="5:5">
@@ -7127,40 +7130,40 @@
     </row>
     <row r="43" customFormat="1" spans="2:5">
       <c r="B43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="2:5">
       <c r="B44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="2:5">
       <c r="B46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="2:11">
       <c r="B47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="5:5">
@@ -7190,70 +7193,70 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="5:5">
       <c r="E60" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="5:5">
       <c r="E62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="5:5">
       <c r="E67" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="5:5">
       <c r="E70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="5:5">
       <c r="E74" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
